--- a/biology/Zoologie/Graptoloidea/Graptoloidea.xlsx
+++ b/biology/Zoologie/Graptoloidea/Graptoloidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Graptoloidea constituent un ordre fossile de graptolites[1], des animaux vivant en colonies et rattachés à l'embranchement des Hemichordata. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Graptoloidea constituent un ordre fossile de graptolites, des animaux vivant en colonies et rattachés à l'embranchement des Hemichordata. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La classe des Graptolithina se subdivise en deux ordres : les Dendroidea (dendroïdes), en forme de dendrites ou de branches (avec un grand nombre d'axes par branche), et les Graptoloidea, qui possèdent moins de branches (souvent 1 ou 2) ; voir Monograptus et Didymograptus.
 Les dendroïdes sont plus primitifs (Cambrien supérieur) et souvent « enracinés » sur le fond marin. Les Graptoloidea se sont séparés des dendroïdes (mode de vie planctonique) au début de l'Ordovicien, probablement en passant par des stades pseudo-planctoniques, et sont prolifiques jusqu'au début du Dévonien. À partir de ce système, seules les formes les plus primitives survivent, pour s’éteindre au Carbonifère inférieure.
@@ -543,17 +557,53 @@
           <t>Taxons de rangs inférieurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SelonBioLib                    (13 octobre 2019)[2], il y a six sous-ordres et un genre non classé :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SelonBioLib                    (13 octobre 2019), il y a six sous-ordres et un genre non classé :
 †Axonophora Frech, 1897
 †Dichograptina Lapworth, 1873
 †Glossograptina Jaanusson, 1960
 †Graptodendroidina Mu &amp; Lin, 1981
 †Sinograpta Maletz et al., 2009
-†Joamgsjamotes
-Aperçu des familles
-Abrograptidae - Azygograptidae - Corynoididae - Cyrtograptidae - Dicaulograptidae - Dichograptidae - Dicranograptidae - Dimorphograptidae - Diplograptidae - Glossograptidae - Glyptograptidae - Goniograptidae - Kalpinograptidae - Kinnegraptidae - Lasiograptidae - Leptograptidae - Loganograptidae - Monograptidae - Nemagraptidae - Ordosograptidae - Orthograptidae - Peiragraptidae - Plectograptidae - Prokinnegraptidae - Pseudoclimacograptidae - Pseudotrigonograptidae - Reteograptidae - Retiolitidae - Sinograptidae - Tridensigraptidae
+†Joamgsjamotes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Graptoloidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graptoloidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxons de rangs inférieurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aperçu des familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abrograptidae - Azygograptidae - Corynoididae - Cyrtograptidae - Dicaulograptidae - Dichograptidae - Dicranograptidae - Dimorphograptidae - Diplograptidae - Glossograptidae - Glyptograptidae - Goniograptidae - Kalpinograptidae - Kinnegraptidae - Lasiograptidae - Leptograptidae - Loganograptidae - Monograptidae - Nemagraptidae - Ordosograptidae - Orthograptidae - Peiragraptidae - Plectograptidae - Prokinnegraptidae - Pseudoclimacograptidae - Pseudotrigonograptidae - Reteograptidae - Retiolitidae - Sinograptidae - Tridensigraptidae
 </t>
         </is>
       </c>
